--- a/Energy Consumption9.xlsx
+++ b/Energy Consumption9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.687940018870537</v>
+        <v>4.490058565930797</v>
       </c>
       <c r="C2" t="n">
-        <v>1.015488124286574</v>
+        <v>1.620881813874908</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.085736518031906</v>
+        <v>5.110313893513412</v>
       </c>
       <c r="C3" t="n">
-        <v>1.869146870425668</v>
+        <v>2.994468826687806</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.174564600892477</v>
+        <v>6.858508804369644</v>
       </c>
       <c r="C4" t="n">
-        <v>2.725389947333649</v>
+        <v>4.759080850396959</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.10609724691596</v>
+        <v>15.3171969844331</v>
       </c>
       <c r="C5" t="n">
-        <v>3.806272444461039</v>
+        <v>6.269858454889558</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.81303461014281</v>
+        <v>16.33068632295175</v>
       </c>
       <c r="C6" t="n">
-        <v>4.686371783086527</v>
+        <v>7.688498984519819</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.56790492704731</v>
+        <v>20.75638682263203</v>
       </c>
       <c r="C7" t="n">
-        <v>5.577364160573218</v>
+        <v>9.070221332874302</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.64326045120418</v>
+        <v>26.42465011269341</v>
       </c>
       <c r="C8" t="n">
-        <v>6.460202192559588</v>
+        <v>10.38584018556291</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.67296201258581</v>
+        <v>27.09809933776642</v>
       </c>
       <c r="C9" t="n">
-        <v>7.750527843534092</v>
+        <v>12.07132950583745</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17.73656940273255</v>
+        <v>35.18829426711937</v>
       </c>
       <c r="C10" t="n">
-        <v>8.494716675606433</v>
+        <v>13.31438615145345</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19.37064548189785</v>
+        <v>36.70038112036372</v>
       </c>
       <c r="C11" t="n">
-        <v>9.48355516850639</v>
+        <v>14.8015866692244</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19.76998909092792</v>
+        <v>37.30977809531738</v>
       </c>
       <c r="C12" t="n">
-        <v>10.34086880810897</v>
+        <v>16.58373071716179</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.55959235745893</v>
+        <v>38.14229334709679</v>
       </c>
       <c r="C13" t="n">
-        <v>11.2178132704136</v>
+        <v>17.82810189444163</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.03762160433151</v>
+        <v>38.5719663215275</v>
       </c>
       <c r="C14" t="n">
-        <v>12.01286427471329</v>
+        <v>19.35076535945387</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.37076755190627</v>
+        <v>38.84557374366931</v>
       </c>
       <c r="C15" t="n">
-        <v>12.97911713786489</v>
+        <v>20.67880509528887</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.17649416798123</v>
+        <v>39.5243991116746</v>
       </c>
       <c r="C16" t="n">
-        <v>13.78986135978398</v>
+        <v>21.97491524829436</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.29283689285339</v>
+        <v>39.70567846102387</v>
       </c>
       <c r="C17" t="n">
-        <v>14.69167626285014</v>
+        <v>23.42679975367606</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.37301164157704</v>
+        <v>40.00115649419028</v>
       </c>
       <c r="C18" t="n">
-        <v>15.80788179705737</v>
+        <v>24.83429714177458</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>37.47633542851283</v>
+        <v>42.41216251985806</v>
       </c>
       <c r="C19" t="n">
-        <v>16.65308952633085</v>
+        <v>26.56120686319364</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>43.1691102904404</v>
+        <v>45.88720228059731</v>
       </c>
       <c r="C20" t="n">
-        <v>17.51926806931209</v>
+        <v>27.9409404894594</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>46.84876407243328</v>
+        <v>48.40015997679462</v>
       </c>
       <c r="C21" t="n">
-        <v>18.20756625332208</v>
+        <v>29.86799222508439</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>49.06348548192457</v>
+        <v>48.58488833277983</v>
       </c>
       <c r="C22" t="n">
-        <v>19.09069960775062</v>
+        <v>31.04822813559518</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>52.27115316743348</v>
+        <v>48.750658882695</v>
       </c>
       <c r="C23" t="n">
-        <v>19.87198959572482</v>
+        <v>32.74957969240667</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>54.03179885384312</v>
+        <v>50.4278154264795</v>
       </c>
       <c r="C24" t="n">
-        <v>20.87200411497626</v>
+        <v>34.16924335174449</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>54.11890382583157</v>
+        <v>51.11219023099868</v>
       </c>
       <c r="C25" t="n">
-        <v>21.77132832685633</v>
+        <v>35.4819744497531</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>59.0532850088475</v>
+        <v>53.43369351216838</v>
       </c>
       <c r="C26" t="n">
-        <v>22.64633790173246</v>
+        <v>37.06999772008673</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>59.58962625534944</v>
+        <v>54.81225429294069</v>
       </c>
       <c r="C27" t="n">
-        <v>23.54480889708922</v>
+        <v>38.30560477136625</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>60.18206650787442</v>
+        <v>56.75543399345208</v>
       </c>
       <c r="C28" t="n">
-        <v>24.42149465340025</v>
+        <v>39.91400221613734</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>63.7290676118564</v>
+        <v>60.02087754636156</v>
       </c>
       <c r="C29" t="n">
-        <v>25.27443808762789</v>
+        <v>41.06731740780052</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68.22181626064791</v>
+        <v>60.40734089781912</v>
       </c>
       <c r="C30" t="n">
-        <v>26.1845885364389</v>
+        <v>42.77718253795002</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>72.14335039304152</v>
+        <v>62.61773297528798</v>
       </c>
       <c r="C31" t="n">
-        <v>27.11440561389062</v>
+        <v>44.34640780486198</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>72.24193902686409</v>
+        <v>65.82621732973547</v>
       </c>
       <c r="C32" t="n">
-        <v>27.93049159344057</v>
+        <v>45.55328779730963</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>73.06657270336471</v>
+        <v>67.25424146288067</v>
       </c>
       <c r="C33" t="n">
-        <v>28.76694459531718</v>
+        <v>47.30943270671355</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>73.16046048032305</v>
+        <v>71.4134597558034</v>
       </c>
       <c r="C34" t="n">
-        <v>29.60274248443215</v>
+        <v>48.98347337385841</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>73.86975697893544</v>
+        <v>73.05055158660305</v>
       </c>
       <c r="C35" t="n">
-        <v>30.5373649716823</v>
+        <v>50.53611865247397</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>75.74362594314225</v>
+        <v>73.87543635566935</v>
       </c>
       <c r="C36" t="n">
-        <v>31.30975704780009</v>
+        <v>51.74290934553003</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>75.84051856157812</v>
+        <v>74.53651078003639</v>
       </c>
       <c r="C37" t="n">
-        <v>32.20092367286514</v>
+        <v>53.77212028679437</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77.41919148512733</v>
+        <v>74.67402017275074</v>
       </c>
       <c r="C38" t="n">
-        <v>32.9808621330134</v>
+        <v>55.13080165189082</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>79.75754398189714</v>
+        <v>79.3898450796483</v>
       </c>
       <c r="C39" t="n">
-        <v>33.98658300787933</v>
+        <v>56.67222922117433</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84.7065505949713</v>
+        <v>81.93881362810673</v>
       </c>
       <c r="C40" t="n">
-        <v>34.94341869410503</v>
+        <v>58.05102856364998</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84.75416963149445</v>
+        <v>84.00226431520605</v>
       </c>
       <c r="C41" t="n">
-        <v>35.75232471535926</v>
+        <v>59.72046871575616</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>88.46753121257329</v>
+        <v>84.1231761044728</v>
       </c>
       <c r="C42" t="n">
-        <v>36.87202881172728</v>
+        <v>60.845873960382</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>88.64219223372399</v>
+        <v>86.09527574473648</v>
       </c>
       <c r="C43" t="n">
-        <v>37.88806175882686</v>
+        <v>62.84979759154067</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.77895007920296</v>
+        <v>86.97679449467499</v>
       </c>
       <c r="C44" t="n">
-        <v>38.69643462426257</v>
+        <v>64.31098750533528</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>96.01891864916929</v>
+        <v>90.74410627854213</v>
       </c>
       <c r="C45" t="n">
-        <v>39.7431538334306</v>
+        <v>66.06866965963884</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>96.09976426535034</v>
+        <v>96.34398863897857</v>
       </c>
       <c r="C46" t="n">
-        <v>40.69203603553144</v>
+        <v>67.79402899184133</v>
       </c>
     </row>
     <row r="47">
@@ -945,32 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>96.67133663197245</v>
+        <v>98.46719278375217</v>
       </c>
       <c r="C47" t="n">
-        <v>41.40826373877039</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>97.9907224703723</v>
-      </c>
-      <c r="C48" t="n">
-        <v>42.28382994281642</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>98.12777049542214</v>
-      </c>
-      <c r="C49" t="n">
-        <v>43.14427210655251</v>
+        <v>69.24081036578599</v>
       </c>
     </row>
   </sheetData>
